--- a/config_1.5/item_config.xlsx
+++ b/config_1.5/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="930">
   <si>
     <t>id|行号</t>
   </si>
@@ -3530,6 +3530,18 @@
   </si>
   <si>
     <t>炽火龙王</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐庆典——星星</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3607,7 +3619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3668,6 +3680,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3711,7 +3729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3819,6 +3837,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4098,11 +4128,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q289"/>
+  <dimension ref="A1:Q290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I253" sqref="I253:I284"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4995,143 +5025,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="39">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="36">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" s="36">
+        <v>1</v>
+      </c>
+      <c r="H31" s="36">
         <v>17</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    <row r="32" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="39">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="D32" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="36">
+        <v>1</v>
+      </c>
+      <c r="F32" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" s="36">
+        <v>1</v>
+      </c>
+      <c r="H32" s="36">
         <v>18</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    <row r="33" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="39">
         <v>31</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D33" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="36">
+        <v>1</v>
+      </c>
+      <c r="F33" s="36" t="s">
         <v>583</v>
       </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" s="36">
+        <v>1</v>
+      </c>
+      <c r="H33" s="36">
         <v>19</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="39">
         <v>32</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="D34" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="36">
+        <v>1</v>
+      </c>
+      <c r="F34" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" s="36">
+        <v>1</v>
+      </c>
+      <c r="H34" s="36">
         <v>20</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="38" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9456,178 +9486,178 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="11">
+    <row r="162" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="36">
         <v>161</v>
       </c>
-      <c r="B162" s="11">
+      <c r="B162" s="36">
         <v>161</v>
       </c>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="D162" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E162" s="11">
-        <v>1</v>
-      </c>
-      <c r="F162" s="12" t="s">
+      <c r="D162" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E162" s="36">
+        <v>1</v>
+      </c>
+      <c r="F162" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="G162" s="11">
-        <v>1</v>
-      </c>
-      <c r="H162" s="11">
+      <c r="G162" s="36">
+        <v>1</v>
+      </c>
+      <c r="H162" s="36">
         <v>34</v>
       </c>
-      <c r="I162" s="12" t="s">
+      <c r="I162" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="J162" s="12" t="s">
+      <c r="J162" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="N162" s="11">
+      <c r="N162" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="11">
+    <row r="163" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="36">
         <v>162</v>
       </c>
-      <c r="B163" s="11">
+      <c r="B163" s="36">
         <v>162</v>
       </c>
-      <c r="C163" s="22" t="s">
+      <c r="C163" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="D163" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E163" s="11">
-        <v>1</v>
-      </c>
-      <c r="F163" s="12" t="s">
+      <c r="D163" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E163" s="36">
+        <v>1</v>
+      </c>
+      <c r="F163" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="G163" s="11">
-        <v>1</v>
-      </c>
-      <c r="H163" s="11">
+      <c r="G163" s="36">
+        <v>1</v>
+      </c>
+      <c r="H163" s="36">
         <v>34</v>
       </c>
-      <c r="I163" s="12" t="s">
+      <c r="I163" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="J163" s="12" t="s">
+      <c r="J163" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="N163" s="11">
+      <c r="N163" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="11">
+    <row r="164" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="36">
         <v>163</v>
       </c>
-      <c r="B164" s="11">
+      <c r="B164" s="36">
         <v>163</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="37" t="s">
         <v>555</v>
       </c>
-      <c r="D164" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E164" s="11">
-        <v>1</v>
-      </c>
-      <c r="F164" s="12" t="s">
+      <c r="D164" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E164" s="36">
+        <v>1</v>
+      </c>
+      <c r="F164" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="G164" s="11">
-        <v>1</v>
-      </c>
-      <c r="H164" s="11">
+      <c r="G164" s="36">
+        <v>1</v>
+      </c>
+      <c r="H164" s="36">
         <v>34</v>
       </c>
-      <c r="I164" s="12" t="s">
+      <c r="I164" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="J164" s="12" t="s">
+      <c r="J164" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="N164" s="11">
+      <c r="N164" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="11">
+    <row r="165" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="36">
         <v>164</v>
       </c>
-      <c r="B165" s="11">
+      <c r="B165" s="36">
         <v>164</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E165" s="11">
-        <v>1</v>
-      </c>
-      <c r="F165" s="12" t="s">
+      <c r="D165" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E165" s="36">
+        <v>1</v>
+      </c>
+      <c r="F165" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="G165" s="11">
-        <v>1</v>
-      </c>
-      <c r="H165" s="11">
+      <c r="G165" s="36">
+        <v>1</v>
+      </c>
+      <c r="H165" s="36">
         <v>34</v>
       </c>
-      <c r="I165" s="12" t="s">
+      <c r="I165" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="J165" s="12" t="s">
+      <c r="J165" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="N165" s="11">
+      <c r="N165" s="36">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="11">
+    <row r="166" spans="1:14" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="36">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="36">
         <v>165</v>
       </c>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="D166" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="11">
-        <v>1</v>
-      </c>
-      <c r="F166" s="12" t="s">
+      <c r="D166" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="36">
+        <v>1</v>
+      </c>
+      <c r="F166" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="G166" s="11">
-        <v>1</v>
-      </c>
-      <c r="H166" s="11">
+      <c r="G166" s="36">
+        <v>1</v>
+      </c>
+      <c r="H166" s="36">
         <v>34</v>
       </c>
-      <c r="I166" s="12" t="s">
+      <c r="I166" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J166" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="N166" s="11">
+      <c r="N166" s="36">
         <v>9</v>
       </c>
     </row>
@@ -13852,10 +13882,10 @@
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="13">
+      <c r="A288" s="11">
         <v>287</v>
       </c>
-      <c r="B288" s="13">
+      <c r="B288" s="11">
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
@@ -13884,10 +13914,10 @@
       </c>
     </row>
     <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="27">
+      <c r="A289" s="11">
         <v>288</v>
       </c>
-      <c r="B289" s="27">
+      <c r="B289" s="11">
         <v>288</v>
       </c>
       <c r="C289" s="33" t="s">
@@ -13913,6 +13943,38 @@
       </c>
       <c r="J289" s="33" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11">
+        <v>289</v>
+      </c>
+      <c r="B290" s="11">
+        <v>289</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="D290" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E290" s="13">
+        <v>1</v>
+      </c>
+      <c r="F290" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="G290" s="13">
+        <v>0</v>
+      </c>
+      <c r="H290" s="13">
+        <v>33</v>
+      </c>
+      <c r="I290" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="J290" s="33" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.5/item_config.xlsx
+++ b/config_1.5/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="933">
   <si>
     <t>id|行号</t>
   </si>
@@ -3541,6 +3541,18 @@
   </si>
   <si>
     <t>prop_hlqd_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4128,11 +4140,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q290"/>
+  <dimension ref="A1:Q292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J300" sqref="J300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13977,6 +13989,44 @@
         <v>928</v>
       </c>
     </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A291" s="36">
+        <v>290</v>
+      </c>
+      <c r="B291" s="36">
+        <v>290</v>
+      </c>
+      <c r="C291" s="38" t="s">
+        <v>932</v>
+      </c>
+      <c r="D291" s="36">
+        <v>-1</v>
+      </c>
+      <c r="E291" s="36">
+        <v>1</v>
+      </c>
+      <c r="F291" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="G291" s="36">
+        <v>0</v>
+      </c>
+      <c r="H291" s="36">
+        <v>33</v>
+      </c>
+      <c r="I291" s="38" t="s">
+        <v>930</v>
+      </c>
+      <c r="J291" s="38" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="I292" s="12"/>
+      <c r="J292" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_1.5/item_config.xlsx
+++ b/config_1.5/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="934">
   <si>
     <t>id|行号</t>
   </si>
@@ -3553,6 +3553,10 @@
   </si>
   <si>
     <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4144,7 +4148,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J300" sqref="J300"/>
+      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14006,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="38" t="s">
-        <v>601</v>
+        <v>933</v>
       </c>
       <c r="G291" s="36">
         <v>0</v>

--- a/config_1.5/item_config.xlsx
+++ b/config_1.5/item_config.xlsx
@@ -2724,10 +2724,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>精灵硬币</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>高级精灵硬币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2736,10 +2732,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>丢入精灵泉水中进行普高级祈祷</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fry1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3557,6 +3549,14 @@
   </si>
   <si>
     <t>act_ty_zp1_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢入精灵泉水中进行高级祈祷</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通精灵硬币</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4147,8 +4147,8 @@
   <dimension ref="A1:Q292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F291" sqref="F291"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I172" sqref="I172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6749,7 +6749,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -10309,7 +10309,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -10318,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10397,10 +10397,10 @@
         <v>3</v>
       </c>
       <c r="I187" s="28" t="s">
-        <v>671</v>
+        <v>933</v>
       </c>
       <c r="J187" s="28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N187" s="27">
         <v>16</v>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10432,10 +10432,10 @@
         <v>4</v>
       </c>
       <c r="I188" s="28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J188" s="28" t="s">
-        <v>674</v>
+        <v>932</v>
       </c>
       <c r="N188" s="27">
         <v>16</v>
@@ -10449,7 +10449,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10458,7 +10458,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10467,10 +10467,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10484,7 +10484,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10502,10 +10502,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10519,7 +10519,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10537,10 +10537,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10554,7 +10554,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10563,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10572,10 +10572,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10589,7 +10589,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10598,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10607,10 +10607,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10624,7 +10624,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10642,10 +10642,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10659,7 +10659,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10677,10 +10677,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10694,7 +10694,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10712,10 +10712,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10729,7 +10729,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10738,7 +10738,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10747,10 +10747,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10764,7 +10764,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10782,10 +10782,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10799,7 +10799,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10808,7 +10808,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10817,10 +10817,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10834,7 +10834,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10852,10 +10852,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10869,7 +10869,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10878,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10887,10 +10887,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10904,7 +10904,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10922,10 +10922,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10939,7 +10939,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10948,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10957,10 +10957,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10974,7 +10974,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10992,10 +10992,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -11009,7 +11009,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -11018,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -11027,10 +11027,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -11044,7 +11044,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -11062,10 +11062,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -11079,7 +11079,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -11088,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -11097,10 +11097,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -11114,7 +11114,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -11123,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -11132,10 +11132,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -11149,7 +11149,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -11167,10 +11167,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -11184,7 +11184,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -11193,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -11202,10 +11202,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -11219,7 +11219,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -11237,10 +11237,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -11254,7 +11254,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -11263,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -11272,10 +11272,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -11289,7 +11289,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -11307,10 +11307,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -11324,7 +11324,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11342,10 +11342,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11359,7 +11359,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11377,10 +11377,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11394,7 +11394,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11403,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11412,10 +11412,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11429,7 +11429,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11438,7 +11438,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11447,10 +11447,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11464,7 +11464,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11473,7 +11473,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11482,10 +11482,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11499,7 +11499,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11508,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11517,10 +11517,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11534,7 +11534,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11552,10 +11552,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11569,7 +11569,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11587,10 +11587,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11604,7 +11604,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11622,10 +11622,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11639,7 +11639,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11648,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11657,10 +11657,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11674,7 +11674,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11683,7 +11683,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11692,10 +11692,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11709,7 +11709,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11718,7 +11718,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11727,10 +11727,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11744,7 +11744,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11762,10 +11762,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11779,7 +11779,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11788,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11797,10 +11797,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11814,7 +11814,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11823,7 +11823,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11832,10 +11832,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11849,7 +11849,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11867,10 +11867,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11884,7 +11884,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11902,10 +11902,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11919,7 +11919,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11937,10 +11937,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11954,7 +11954,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11972,10 +11972,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11989,7 +11989,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -12007,10 +12007,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -12024,7 +12024,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -12042,10 +12042,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -12059,7 +12059,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -12077,10 +12077,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -12094,7 +12094,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -12112,10 +12112,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -12129,7 +12129,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -12138,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -12147,10 +12147,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -12164,7 +12164,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -12182,10 +12182,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -12199,7 +12199,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -12208,7 +12208,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -12217,10 +12217,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -12234,7 +12234,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -12243,7 +12243,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -12252,10 +12252,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -12269,7 +12269,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -12287,10 +12287,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -12304,7 +12304,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -12322,10 +12322,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12339,7 +12339,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12348,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12357,10 +12357,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12374,7 +12374,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12392,10 +12392,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12409,7 +12409,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12418,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12427,10 +12427,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12444,7 +12444,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12453,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12462,10 +12462,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12479,7 +12479,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12488,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12497,10 +12497,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12514,7 +12514,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12532,10 +12532,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12549,7 +12549,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12567,10 +12567,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12584,7 +12584,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12593,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12602,10 +12602,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12619,7 +12619,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12628,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12637,10 +12637,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12654,7 +12654,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12663,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12672,10 +12672,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12698,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12707,10 +12707,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12724,7 +12724,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12742,10 +12742,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12759,7 +12759,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12768,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12777,10 +12777,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12794,7 +12794,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12812,10 +12812,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12829,7 +12829,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12838,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12847,10 +12847,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12864,7 +12864,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12873,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12882,10 +12882,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12899,7 +12899,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12908,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12917,10 +12917,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12934,7 +12934,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12952,10 +12952,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12969,7 +12969,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12978,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12987,10 +12987,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -13004,7 +13004,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -13022,10 +13022,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -13039,7 +13039,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -13048,7 +13048,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -13057,10 +13057,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -13074,7 +13074,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -13092,10 +13092,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -13109,7 +13109,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -13118,7 +13118,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -13127,10 +13127,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -13144,7 +13144,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -13153,7 +13153,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -13162,10 +13162,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -13179,7 +13179,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -13197,10 +13197,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -13214,7 +13214,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -13223,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -13232,10 +13232,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -13249,7 +13249,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -13267,10 +13267,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -13284,7 +13284,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -13302,10 +13302,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -13319,7 +13319,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13328,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13337,10 +13337,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13354,7 +13354,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13363,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13372,10 +13372,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13389,7 +13389,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13407,10 +13407,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13424,7 +13424,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13442,10 +13442,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13459,7 +13459,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13468,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13477,10 +13477,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13494,7 +13494,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13512,10 +13512,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13529,7 +13529,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13547,10 +13547,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13564,7 +13564,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13573,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13582,10 +13582,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13599,7 +13599,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13608,7 +13608,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13617,10 +13617,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13634,7 +13634,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13643,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13652,10 +13652,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13669,7 +13669,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13678,7 +13678,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13687,10 +13687,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13704,7 +13704,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13722,10 +13722,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13739,7 +13739,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13748,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13757,10 +13757,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13774,7 +13774,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13783,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13792,10 +13792,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13809,7 +13809,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13818,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13827,10 +13827,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="J285" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13841,7 +13841,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13859,10 +13859,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13873,7 +13873,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13882,7 +13882,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13891,10 +13891,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J287" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13905,7 +13905,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -13914,7 +13914,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="33" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13923,10 +13923,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13937,16 +13937,16 @@
         <v>288</v>
       </c>
       <c r="C289" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="D289" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="13">
+        <v>1</v>
+      </c>
+      <c r="F289" s="33" t="s">
         <v>825</v>
-      </c>
-      <c r="D289" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E289" s="13">
-        <v>1</v>
-      </c>
-      <c r="F289" s="33" t="s">
-        <v>827</v>
       </c>
       <c r="G289" s="13">
         <v>0</v>
@@ -13955,10 +13955,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="290" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13969,7 +13969,7 @@
         <v>289</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D290" s="13">
         <v>-1</v>
@@ -13978,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="33" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G290" s="13">
         <v>0</v>
@@ -13990,7 +13990,7 @@
         <v>551</v>
       </c>
       <c r="J290" s="33" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
@@ -14001,7 +14001,7 @@
         <v>290</v>
       </c>
       <c r="C291" s="38" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D291" s="36">
         <v>-1</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="F291" s="38" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G291" s="36">
         <v>0</v>
@@ -14019,10 +14019,10 @@
         <v>33</v>
       </c>
       <c r="I291" s="38" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J291" s="38" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="292" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
